--- a/abstruction/论文.xlsx
+++ b/abstruction/论文.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没必要4个Kinect，会自动上下扫描，用它的论文的话应该2个就够了。并且，拟和的跟人物的差点很大，衣服都没了。用来测量还行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四个Kinect,2 个前，2个后。通过计算标定。ICP,interated closet point，迭代最近点。速度快。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,6 +62,135 @@
   </si>
   <si>
     <t>系统仿真学报</t>
+  </si>
+  <si>
+    <t>通过一张白张来标定，用的是windows的Fusion API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没必要手动标定，用的是微软的API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用了三台，速度快。表面重建用的貌似是MeshLab的Poisson Reconstruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没必要4个Kinect，会自动上下扫描，用它的论文的话应该2个就够了。并且，拟和的跟人物的差点很大，衣服都没了。用来测量还行。没看到Fusion算法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于GPU 和Kinect 的快速物体重建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化学报</t>
+  </si>
+  <si>
+    <t>用一个Kinect，通过一个转盘转用来重建物体。GPU加速是用来转化旋转物体的每帧的位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU应该用来加速算配准的，用在了坐标变换上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过视差来获取点云，GPU加速。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于深度相机的三维物体与人体扫描重建_童晶</t>
+  </si>
+  <si>
+    <t>博士毕业论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要看了关于多Kinect成像问题。讲的比较细，以及多kinect的相互干扰问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲的很细致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Kinect深度传感器的三维重建技术应用研究_叶日藏</t>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本上只介绍了概念，实际的东西~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Kinect深度相机的室内三维场景重构_张翠红</t>
+  </si>
+  <si>
+    <t>硕士毕设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了一个基于SURF和ICP的实验，针对的场景的实验~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A基于类Kinect的三维人体重建及应用_许鸿尧</t>
+  </si>
+  <si>
+    <t>毕设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引文挺有用的，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Besl P J, McKay H D. A method for registration of 3-d shapes. IEEE Transactions on Pattern Analysis and Ma-chine Intelligence, 1992, 14(2): 239?256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engelhard 等[1]利用Kinect 提供的RGB-D 相机实现了一个实时的视觉SLAM 系统, 该系统能够用于场景重建. 其主要方法是利用彩色摄像机进行SURF 特征匹配[7],先获得摄像机位置的初值, 然后用ICP (Iterativeclosest point) 算法[8] 进行点云配准并对相机位置进行优化.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Henry 等[2?3] 利用Kinect 实现了一个交互式的三维重建系统, 该系统仅选取关键帧进行ICP 配准. 这两种方法均需要进行图像特征提取与匹配, 而一般的物体图像则较难提取出可靠的匹配特征.</t>
+  </si>
+  <si>
+    <t>Henry P, Krainin M, Herbst E, Ren X, Fox D. RGB-mapping: using depth cameras for dense 3D modeling ofindoor environments. In: Proceedings of the 12th Interna-tional Symposium on Experimental Robotics. Delhi, India:IEEE, 2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Du H, Henry P, Ren X F, Cheng M, Goldman D B, SeitzS M, Fox D. Interactive 3D modeling of indoor environ-ments with a consumer depth camera. In: Proceedings of the 13th International Conference on Ubiquitous Comput-ing. Beijing, China: IEEE, 2011. 75?84</t>
+  </si>
+  <si>
+    <t>Izadi 等[4?5] 给出了一种基于GPU 并行计算的实时定位与重建系统, 并实现了动态场景的增强现实应用. 但该系统重建结果依赖于实时的ICP 配准, 配准错误影响系统的稳定性, 而配准误差使得重建的三维模型存在一定的环闭合(Loop-closure) 问题.</t>
+  </si>
+  <si>
+    <t>Tong等[6]给出了一种基于Kinect的人体(有轻微形变的非刚体)重建方法.该方法首先需要对人体进行建模.然后利用图像特征点实现相邻帧的局部配准并进行全局优化.该系统通过局部配准与全局优化的反复迭代来获得人体模型.  系统需要对人体进行建模,不适用于一般的物体重建,   因为对一般的物体图像,    提取可靠的匹配特征是很困难的.此外, 反复迭代的配准策略会一定程度地影响算法的时间性能.</t>
+  </si>
+  <si>
+    <t>Kinect 是一种主动传感器, 它不受环境可见光谱的干扰[9?10]; Kinect 的核心设备是彩色摄像机、红外线发射器和红外线CMOS 摄影机, 这些设备都比较廉价, 因而Kinect 的售价也较为低廉; 此外, Kinect 的操作与普通摄像机类似, 易于使用.</t>
+  </si>
+  <si>
+    <t>与文献[1?3, 6] 的方法相比, 本文方法不需要提取图像特征点进行局部配准. 这使得本文方法适用于纹理并不丰富的物体重建. 由于利用了转台的匀速旋转特性, 本文的局部配准方法也不同于文献[4?5] 中的配准方法. 3) 系统不需要精确标定, 只需要粗略标定即可. 4) 能比较有效地处理Loop-closure 问题. 与文献[6] 的方法相比, 本文方法的局部配准和全局配准仅需进行一次. 此外, 为了探索有遮挡物体的重建问题, 我们将本文方法应用于有遮挡物体的重建, 也取得了比较满意的重建效果.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izadi S, Newcombe R A, Kim D, Hilliges O, Molyneaux D,Hodges S, Kohli P, Davison A, Fitzgibbon A. KinectFusion:real-time dynamic 3D surface reconstruction and interac-tion. In: Proceedings of the  International Conferenceon Computer Graphics and Interactive Techniques. Vancou-ver, Canada: ACM, </t>
+  </si>
+  <si>
+    <t>Izadi S, Kim D, Hilliges O, Molyneaux D, Newcombe R,Kohli P, Shotton J, Hodges S, Freeman D, Davison A,Fitzgibbon A. KinectFusion: real-time 3D reconstructionand interaction using a moving depth camera. In: Proceed-ings of the 2011 Annual ACM Symposium on User InterfaceSoftware and Technology. Santa Barbara, CA: ACM, 2011.559?568</t>
+  </si>
+  <si>
+    <t>Konolige K, Mihelich P. Technical description of Kinectcalibration [Online], available: http://www.ros.org/wiki/kinect calibration/technical, November 3, 2011</t>
+  </si>
+  <si>
+    <t>Tong J, Zhou J, Liu L G, Pan Z G, Yan H. Scanning 3D fullhuman bodies using Kinects. IEEE Transactions on Visual-ization and Computer Graphics, 2012, 18(4): 643?650</t>
   </si>
 </sst>
 </file>
@@ -107,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -120,6 +246,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,10 +610,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -525,52 +660,90 @@
     </row>
     <row r="3" spans="1:48" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4">
+        <v>41548</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
-        <v>41548</v>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+    <row r="4" spans="1:48" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2012</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+    <row r="5" spans="1:48" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>41275</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
+    <row r="6" spans="1:48" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
@@ -579,11 +752,19 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
+    <row r="7" spans="1:48" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
@@ -592,11 +773,19 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+    <row r="8" spans="1:48" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
@@ -608,8 +797,8 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -621,8 +810,8 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -634,8 +823,8 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -647,8 +836,8 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -660,8 +849,8 @@
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -673,8 +862,8 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -686,8 +875,8 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -699,8 +888,8 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -712,8 +901,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -725,8 +914,8 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -738,8 +927,8 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -751,8 +940,8 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -764,8 +953,8 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -777,8 +966,8 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -790,8 +979,8 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -803,8 +992,8 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -816,8 +1005,8 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -829,8 +1018,8 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -842,8 +1031,8 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -855,8 +1044,8 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -868,8 +1057,8 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -881,8 +1070,8 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -894,8 +1083,8 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -907,8 +1096,8 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -920,8 +1109,8 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -933,8 +1122,8 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -946,8 +1135,8 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -959,8 +1148,8 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -972,8 +1161,8 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -985,8 +1174,8 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -998,8 +1187,8 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1011,8 +1200,8 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1024,8 +1213,8 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1037,8 +1226,8 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1050,8 +1239,8 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1063,8 +1252,8 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1076,8 +1265,8 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1089,8 +1278,8 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1102,8 +1291,8 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1115,8 +1304,8 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1128,8 +1317,8 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1141,8 +1330,8 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1154,8 +1343,8 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1167,8 +1356,8 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1180,8 +1369,8 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1193,8 +1382,8 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -1206,8 +1395,8 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -1219,8 +1408,8 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -1232,8 +1421,8 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -1245,8 +1434,8 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -1258,8 +1447,8 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -1271,8 +1460,8 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -1284,8 +1473,8 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -1297,8 +1486,8 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -1310,8 +1499,8 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -1323,8 +1512,8 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -1336,8 +1525,8 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -1349,8 +1538,8 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -1362,8 +1551,8 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -1375,8 +1564,8 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -1388,8 +1577,8 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -1401,8 +1590,8 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -1414,8 +1603,8 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -1427,8 +1616,8 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -1440,8 +1629,8 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -1453,8 +1642,8 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -1466,8 +1655,8 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -1479,8 +1668,8 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -1492,8 +1681,8 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -1505,8 +1694,8 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -1518,8 +1707,8 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -1531,8 +1720,8 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -1544,8 +1733,8 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -1557,8 +1746,8 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -1570,8 +1759,8 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -1583,8 +1772,8 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -1596,8 +1785,8 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -1609,8 +1798,8 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -1622,8 +1811,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -1635,8 +1824,8 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -1648,8 +1837,8 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -1661,8 +1850,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -1674,8 +1863,8 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -1687,8 +1876,8 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -1700,8 +1889,8 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -1713,8 +1902,8 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -1726,8 +1915,8 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -1739,8 +1928,8 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -1752,8 +1941,8 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -1765,8 +1954,8 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -1778,8 +1967,8 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -1791,8 +1980,8 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -1804,8 +1993,8 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -1817,8 +2006,8 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -1830,8 +2019,8 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -1843,8 +2032,8 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -1856,8 +2045,8 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -1869,8 +2058,8 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -1882,8 +2071,8 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -1895,8 +2084,8 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -1908,8 +2097,8 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -1921,8 +2110,8 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -1934,8 +2123,8 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -1947,8 +2136,8 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -1960,8 +2149,8 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -1973,8 +2162,8 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -1986,8 +2175,8 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -1999,8 +2188,8 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -2012,8 +2201,8 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -2025,8 +2214,8 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -2038,8 +2227,8 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -2051,8 +2240,8 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -2064,8 +2253,8 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -2077,8 +2266,8 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -2090,8 +2279,8 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -2103,8 +2292,8 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -2116,8 +2305,8 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -2129,8 +2318,8 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -2142,8 +2331,8 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -2155,8 +2344,8 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -2168,8 +2357,8 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -2181,8 +2370,8 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -2194,8 +2383,8 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -2207,8 +2396,8 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -2220,8 +2409,8 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -2233,8 +2422,8 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -2246,8 +2435,8 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -2259,8 +2448,8 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -2272,8 +2461,8 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -2285,8 +2474,8 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -2298,8 +2487,8 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -2311,8 +2500,8 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -2324,8 +2513,8 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -2337,8 +2526,8 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -2350,8 +2539,8 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -2363,8 +2552,8 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -2376,8 +2565,8 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -2389,8 +2578,8 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -2402,8 +2591,8 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -2415,8 +2604,8 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -2428,8 +2617,8 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -2441,8 +2630,8 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -2454,8 +2643,8 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -2467,8 +2656,8 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -2480,8 +2669,8 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -2493,8 +2682,8 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -2506,8 +2695,8 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -2519,8 +2708,8 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -2532,8 +2721,8 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -2545,8 +2734,8 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -2558,8 +2747,8 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -2571,8 +2760,8 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -2584,8 +2773,8 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -2597,8 +2786,8 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -2610,8 +2799,8 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -2623,8 +2812,8 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -2636,8 +2825,8 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -2649,8 +2838,8 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -2662,8 +2851,8 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -2675,8 +2864,8 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -2688,8 +2877,8 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -2701,8 +2890,8 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -2714,8 +2903,8 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -2727,8 +2916,8 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -2740,8 +2929,8 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -2753,8 +2942,8 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
@@ -2766,8 +2955,8 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -2779,8 +2968,8 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -2792,8 +2981,8 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
@@ -2805,8 +2994,8 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
@@ -2818,8 +3007,8 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -2831,8 +3020,8 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -2844,8 +3033,8 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -2857,8 +3046,8 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -2870,8 +3059,8 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -2883,8 +3072,8 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -2896,8 +3085,8 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -2909,8 +3098,8 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -2922,8 +3111,8 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -2935,8 +3124,8 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -2948,8 +3137,8 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -2961,8 +3150,8 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -2974,8 +3163,8 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -2987,8 +3176,8 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -3000,8 +3189,8 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
@@ -3013,8 +3202,8 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -3026,8 +3215,8 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -3039,8 +3228,8 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -3052,8 +3241,8 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
@@ -3065,8 +3254,8 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -3078,8 +3267,8 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -3091,8 +3280,8 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -3104,8 +3293,8 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -3117,8 +3306,8 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -3130,8 +3319,8 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -3143,8 +3332,8 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
@@ -3156,8 +3345,8 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -3169,8 +3358,8 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
@@ -3182,8 +3371,8 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
@@ -3195,8 +3384,8 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
@@ -3208,8 +3397,8 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
@@ -3221,8 +3410,8 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -3234,8 +3423,8 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -3247,8 +3436,8 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
@@ -3260,8 +3449,8 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -3273,8 +3462,8 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -3286,8 +3475,8 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -3299,8 +3488,8 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -3312,8 +3501,8 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
@@ -3325,8 +3514,8 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
@@ -3338,8 +3527,8 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
@@ -3351,8 +3540,8 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
@@ -3364,8 +3553,8 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -3377,8 +3566,8 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
@@ -3390,8 +3579,8 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
@@ -3403,8 +3592,8 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
@@ -3416,8 +3605,8 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
@@ -3429,8 +3618,8 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
@@ -3442,8 +3631,8 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
@@ -6461,4 +6650,477 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="92.5" customWidth="1"/>
+    <col min="3" max="3" width="152.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/abstruction/论文.xlsx
+++ b/abstruction/论文.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,116 @@
   </si>
   <si>
     <t>Tong J, Zhou J, Liu L G, Pan Z G, Yan H. Scanning 3D fullhuman bodies using Kinects. IEEE Transactions on Visual-ization and Computer Graphics, 2012, 18(4): 643?650</t>
+  </si>
+  <si>
+    <t>Microsoft. Kinect [EB/OL]. (2012) [2013-7-1].http://www.xbox.com/kinect.</t>
+  </si>
+  <si>
+    <t>Kinect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统三维建模扫描技术通常使用结构光扫描仪或者激光扫描仪获得高精度数据，用以生成高真实感的三维虚拟人个性化模型[2]。</t>
+  </si>
+  <si>
+    <t>Cyberware 人体扫描系统[3]市面报价为24 万元，普通用户很难承受如此价格。此外，Cyberware 等设备均要求用户保持一定时间的静止状态，如Cyberware 的捕获时间为17 秒</t>
+  </si>
+  <si>
+    <t>Tong et al.[7]借助了三台Kinect 完成人体的捕获。但是，该系统需要大约30 秒的数据采集时间，而且，文献[7]的系统还需要转盘等设备。这严重限制了重建系统的适用范围。</t>
+  </si>
+  <si>
+    <t>中通过[9]的SuperMatching算法已经获得了Kinect 两两之间的标定矩阵，依赖于这两个标定矩阵，可以分别把另两个Kinect 扫描到的两个侧面人体点云模型信息变换到基准Kinect 采集到的人体点云模型上，从而成功的将三组人体不同角度的点云信息注册到一起，形成完整的用户三维点云模型。</t>
+  </si>
+  <si>
+    <t>Allen B, Curless B, Popovi? Z. The space of human body shapes:reconstruction and parameterization from range scans [J]. ACMTransactions on Graphics (TOG) (S0730-0301), 2003, 22(3): 587-594.</t>
+  </si>
+  <si>
+    <t>生理学的最新研究结果[5,6]表明，3 秒是一个人能够自然保持“假死”静止的时间段。因此，使用一台Kinect 完成静态人体的扫描是不可能完成的任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyberware. The Cyberware Whole Body Color 3D Scanner.[EB/OL]. (2012) [2013-7-1].http://www.cyberware.com/products/scanners/wbx.html.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D N Stern. The present moment: In psychotherapy and everyday life[M], Norton Co, New York, USA, 2004. Chen Y, Cheng Z Q.Personalized avatar capture using two Kinects in a moment [C]//SIGGRAPH Asia 2012 Posters. USA: ACM, 2012: 3.</t>
+  </si>
+  <si>
+    <t>Tong J, Zhou J, Liu L, et al. Scanning 3d full human bodies usingkinects [J]. IEEE Transactions on Visualization and ComputerGraphics (S1077-2626), 2012, 18(4): 643-650.</t>
+  </si>
+  <si>
+    <t>Z-Q Cheng, Y Chen, R R Martin, Y La. Supermatching: FeatureMatching using Supersymmetric Geometric Constraints [J]. IEEETransactions on Visualization and Computer Graphics (S1077-2626),2013.</t>
+  </si>
+  <si>
+    <t>，虚拟试衣Ⅲ</t>
+  </si>
+  <si>
+    <t>三维人体模型重建通常利用结构光扫描仪或者镭射扫描仪获得多个视角的数据；再通过扫描过程中在身体部位设置的标记点注册点云数据呦，从而874 计算机辅助设计与图形学学报第25卷得到完整的人体点云；最后从点云中抽取网格模型嘲</t>
+  </si>
+  <si>
+    <t>近年来有不少基于单摄像机[4’5]或者多摄像机系统[6。]的三维人体重建方法被提出</t>
+  </si>
+  <si>
+    <t>Weiss等邱3提出用单台Kinect获取使用者在4个视角下的三维人体点云，通过点云的轮廓信息估计人体的姿势和体型</t>
+  </si>
+  <si>
+    <t>在Tong等[93提出的三维人体重建方法中，结合图像序列的特征点对应关系以及三维点云实现了点云的非刚性注册算法，将3台Kinect扫描得到的三维点云重建．</t>
+  </si>
+  <si>
+    <t>Carignan M，Yang Y，Thalmann M，et a1．Dressing animatedsynthetic actors with complex deformable clothes EJ2．ACMSIGGRAPH Computer Graphics，1992，26(2)：99—104</t>
+  </si>
+  <si>
+    <t>Montani C，Scateni R，Scopigno R．Discretized marchingcubes[c]／／Proceedings of the IEEE Conference onVisualization’94．Los Alamitos：IEEE Computer SocietyPress，1994：281—287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dorai C，Wang G，Jain A K．Registration and integration ofmultiple object views for 3D model construction[J]．IEEETransactions on Pattern Analysis and Machine Intelligence，1998，20(1)：83-89</t>
+  </si>
+  <si>
+    <t>Hasler N，Ackermann H，Rosenhahn B，et a1．Muhilinearpose and body shape estimation of dressed subjects from imagesets EC]／／Proceedings of IEEE Conference on ComputerVision and Pattern Recognition．Los Alamitos： IEEEComputer Society Press，2010：1823—1830</t>
+  </si>
+  <si>
+    <t>Guan P，Weiss A，Balan A 0，etal．Estimating human shapeand pose from a single image[c]／／Proceedings of the 1 2thIEEE International Conference on Computer Vision．LosAlamitos：IEEE Computer Society Press，2009：1381一1388</t>
+  </si>
+  <si>
+    <t>Balan A，Sigal L，Black M J，et a1．Detailed human shape andpose from images[c]／／Proceedings of IEEE Conference onComputer Vision and Pattern Recognition．Los Alamitos：1EEE Computer Society Press，2007：1—8</t>
+  </si>
+  <si>
+    <t>Weiss A，Hirshberg D，Black M J．Home 3D body scans fromnoisy image and range data[c]／／Proceedings of IEEEInternational Conference on Computer Vision．Los Alamitos：IEEE Computer Society Press，2011：1951—1958</t>
+  </si>
+  <si>
+    <t>Tong J，Zhou J，Liu L G，el a1．Scanning 3D full humanbodies using Kinects[J]．IEEE Transactions on Visualizationand Computer Graphics，2012，18(4)：643—650</t>
+  </si>
+  <si>
+    <t>Amberg B，Romdhani S，Vetter T．Optimal step nonrigid ICPalgorithms for surface registration[c]／／Proceedings of IEEEConference on Computer Vision and Pattern Recognition．LosAlamitos：IEEE Computer Society Press，2007：1—8</t>
+  </si>
+  <si>
+    <t>Besl P J，McKay H D．A method for registration of 3-Dshapes[J]．IEEE Transactions on Pattern Analysis andMachine Intelligence，1992，14(2)：239—256</t>
+  </si>
+  <si>
+    <t>迭代最近点(iterated closest point，ICP)查找方法[14。15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统的三维激光扫描仪、结构光扫描仪可以精确地捕获物体表面的三维几何信息,但这类设备一般结构复杂、不易操作且价格昂贵⑴。</t>
+  </si>
+  <si>
+    <t>利用多台彩色摄像机,立体视觉系统可以低成本地捕获三维几何信息,但这类系统一般计算复杂度高、算法鲁棒性较低且较难处理缺少纹理及存在遮挡的情况[2]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度相机为计算机视觉、计算机图形学等领域的研宄提供了一种新的手段,目前在人机交互、游戏、机器视觉、增强现实、视频监控、机器人、生物医学、汽车工业等领域得到了广泛的关注[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一,深度相机普遍存在获取深度信息分辨率低、噪声大的缺陷 6 7 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了获取物体表面各个角度完整的几何信息,需要对多视角捕获的多侦数据进行配准。而对含噪数据的配准,尤其是动态物体的配准,仍然是一个被广泛关注的研宄难题9=。</t>
+  </si>
+  <si>
+    <t>相对于一般静态物体或场景的扫描重建 10-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -233,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -255,6 +365,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV458"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6656,8 +6769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6748,88 +6861,144 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
@@ -6839,32 +7008,44 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C31" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
@@ -7115,9 +7296,12 @@
       <c r="B88" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/abstruction/论文.xlsx
+++ b/abstruction/论文.xlsx
@@ -203,9 +203,6 @@
     <t>传统三维建模扫描技术通常使用结构光扫描仪或者激光扫描仪获得高精度数据，用以生成高真实感的三维虚拟人个性化模型[2]。</t>
   </si>
   <si>
-    <t>Cyberware 人体扫描系统[3]市面报价为24 万元，普通用户很难承受如此价格。此外，Cyberware 等设备均要求用户保持一定时间的静止状态，如Cyberware 的捕获时间为17 秒</t>
-  </si>
-  <si>
     <t>Tong et al.[7]借助了三台Kinect 完成人体的捕获。但是，该系统需要大约30 秒的数据采集时间，而且，文献[7]的系统还需要转盘等设备。这严重限制了重建系统的适用范围。</t>
   </si>
   <si>
@@ -300,6 +297,10 @@
   </si>
   <si>
     <t>相对于一般静态物体或场景的扫描重建 10-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyberware 人体扫描系统[3]市面报价为24 万元，普通用户很难承受如此价格。此外，Cyberware 等设备均要求用户保持一定时间的静止状态，如Cyberware 的捕获时间为17 秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6769,8 +6770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6871,7 +6872,7 @@
     <row r="13" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>50</v>
@@ -6880,37 +6881,37 @@
     <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -6921,82 +6922,82 @@
     <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="8"/>
     </row>
@@ -7009,42 +7010,42 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
